--- a/origin_data/label/type3_2.xlsx
+++ b/origin_data/label/type3_2.xlsx
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,7 +40,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -55,37 +131,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,13 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -122,24 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,29 +182,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,13 +192,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,13 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,151 +348,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,60 +383,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,15 +397,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,150 +420,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,7 +988,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:Q24"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,55 +1755,55 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1839,105 +1846,105 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
